--- a/fastqFiles/fastq_2574.xlsx
+++ b/fastqFiles/fastq_2574.xlsx
@@ -442,7 +442,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -475,7 +475,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -510,7 +510,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -547,7 +547,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -617,7 +617,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -654,7 +654,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -689,7 +689,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -724,7 +724,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -794,7 +794,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -829,7 +829,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -864,7 +864,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -934,7 +934,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -969,7 +969,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1004,7 +1004,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1109,7 +1109,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1146,7 +1146,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1183,7 +1183,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1218,7 +1218,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1253,7 +1253,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1286,7 +1286,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1356,7 +1356,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1461,7 +1461,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1496,7 +1496,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -1533,7 +1533,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -1568,7 +1568,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -1603,7 +1603,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -1638,7 +1638,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -1673,7 +1673,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -1708,7 +1708,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -1743,7 +1743,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -1778,7 +1778,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -1813,7 +1813,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -1848,7 +1848,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -1885,7 +1885,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -1920,7 +1920,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -1955,7 +1955,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -1990,7 +1990,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2025,7 +2025,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
